--- a/results/tr-app-results.xlsx
+++ b/results/tr-app-results.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="380" windowWidth="31380" windowHeight="22640" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2740" yWindow="1020" windowWidth="34740" windowHeight="22560" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="anpp" sheetId="2" r:id="rId2"/>
     <sheet name="respiration" sheetId="3" r:id="rId3"/>
+    <sheet name="location" sheetId="4" r:id="rId4"/>
+    <sheet name="seasons" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="38">
   <si>
     <t>sample_id</t>
   </si>
@@ -116,13 +118,7 @@
     <t>sample_event_id</t>
   </si>
   <si>
-    <t>o2_change_mg</t>
-  </si>
-  <si>
     <t>time_difference_hr</t>
-  </si>
-  <si>
-    <t>app (mg/hr)</t>
   </si>
   <si>
     <t>anpp_mean (mg/hr)</t>
@@ -135,6 +131,15 @@
   </si>
   <si>
     <t>respiration_std_err</t>
+  </si>
+  <si>
+    <t>same thing as respiration, but select dark bottles instead</t>
+  </si>
+  <si>
+    <t>o2_change_mg/L</t>
+  </si>
+  <si>
+    <t>app (mg/hr*L)</t>
   </si>
 </sst>
 </file>
@@ -183,8 +188,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -197,11 +212,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -479,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P133"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -532,13 +557,13 @@
         <v>8</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -7550,10 +7575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7580,10 +7605,65 @@
         <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42877</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4">
+        <f>AVERAGE(data!P2:P7)</f>
+        <v>0.72773533924196931</v>
+      </c>
+      <c r="G2">
+        <f>(STDEV(data!P2:P7))/SQRT(COUNT(data!P2:P7))</f>
+        <v>8.8507520949526568E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -7599,9 +7679,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -7610,7 +7692,7 @@
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -7627,10 +7709,15 @@
         <v>26</v>
       </c>
       <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="I2" t="s">
         <v>35</v>
-      </c>
-      <c r="G1" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -7641,4 +7728,78 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/results/tr-app-results.xlsx
+++ b/results/tr-app-results.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="1020" windowWidth="34740" windowHeight="22560" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="anpp" sheetId="2" r:id="rId2"/>
     <sheet name="respiration" sheetId="3" r:id="rId3"/>
     <sheet name="location" sheetId="4" r:id="rId4"/>
-    <sheet name="seasons" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="50">
   <si>
     <t>sample_id</t>
   </si>
@@ -133,20 +132,56 @@
     <t>respiration_std_err</t>
   </si>
   <si>
-    <t>same thing as respiration, but select dark bottles instead</t>
-  </si>
-  <si>
     <t>o2_change_mg/L</t>
   </si>
   <si>
     <t>app (mg/hr*L)</t>
+  </si>
+  <si>
+    <t>average and std error of all anpp inflow</t>
+  </si>
+  <si>
+    <t>aerage and std error of all anpp outflow</t>
+  </si>
+  <si>
+    <t>average and std error of all respiration inflow</t>
+  </si>
+  <si>
+    <t>average and std eerror of all respiration outflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outflow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">light </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark </t>
+  </si>
+  <si>
+    <t>anpp</t>
+  </si>
+  <si>
+    <t>respiration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">respiration </t>
+  </si>
+  <si>
+    <t>data_type</t>
+  </si>
+  <si>
+    <t>mean(mg/L*hr)</t>
+  </si>
+  <si>
+    <t>ave_std_err</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,13 +205,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="206"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -188,7 +235,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -204,15 +251,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -220,6 +290,15 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -227,6 +306,15 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,7 +582,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -504,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P133"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:D45"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -560,326 +648,326 @@
         <v>30</v>
       </c>
       <c r="O1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:16" s="6" customFormat="1">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7">
         <v>42877</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="8">
         <v>0.3034722222222222</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="6">
         <v>27.3</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="6">
         <v>4.34</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="8">
         <v>0.4458333333333333</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="6">
         <v>29</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="6">
         <v>6.92</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="9">
         <f>(K2-H2)*24</f>
         <v>3.4166666666666665</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="6">
         <f>M2-J2</f>
         <v>2.58</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="9">
         <f>O2/N2</f>
         <v>0.7551219512195122</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
-      <c r="A3">
+    <row r="3" spans="1:16" s="6" customFormat="1">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7">
         <v>42877</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="8">
         <v>0.30624999999999997</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="6">
         <v>27.3</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="6">
         <v>4.45</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="8">
         <v>0.4465277777777778</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="6">
         <v>29</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="6">
         <v>6.91</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="9">
         <f t="shared" ref="N3:N66" si="0">(K3-H3)*24</f>
         <v>3.366666666666668</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="6">
         <f t="shared" ref="O3:O66" si="1">M3-J3</f>
         <v>2.46</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="9">
         <f t="shared" ref="P3:P66" si="2">O3/N3</f>
         <v>0.73069306930693034</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4">
+    <row r="4" spans="1:16" s="6" customFormat="1">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="6">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="7">
         <v>42877</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="8">
         <v>0.30763888888888891</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6">
         <v>27.3</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="6">
         <v>4.53</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="8">
         <v>0.44722222222222219</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="6">
         <v>29</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="6">
         <v>6.95</v>
       </c>
-      <c r="N4" s="4">
+      <c r="N4" s="9">
         <f t="shared" si="0"/>
         <v>3.3499999999999988</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="6">
         <f t="shared" si="1"/>
         <v>2.42</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="9">
         <f t="shared" si="2"/>
         <v>0.72238805970149278</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5">
+    <row r="5" spans="1:16" s="6" customFormat="1">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="6">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7">
         <v>42877</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="8">
         <v>0.30833333333333335</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <v>27.3</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <v>4.5599999999999996</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="8">
         <v>0.44791666666666669</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="6">
         <v>29.9</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="6">
         <v>7.03</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="9">
         <f t="shared" si="0"/>
         <v>3.35</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="6">
         <f t="shared" si="1"/>
         <v>2.4700000000000006</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="9">
         <f t="shared" si="2"/>
         <v>0.73731343283582107</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6">
+    <row r="6" spans="1:16" s="6" customFormat="1">
+      <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7">
         <v>42877</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="8">
         <v>0.30972222222222223</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="6">
         <v>27.3</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="6">
         <v>4.62</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="8">
         <v>0.44930555555555557</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="6">
         <v>29.9</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="6">
         <v>6.93</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="9">
         <f t="shared" si="0"/>
         <v>3.35</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="6">
         <f t="shared" si="1"/>
         <v>2.3099999999999996</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="9">
         <f t="shared" si="2"/>
         <v>0.68955223880597005</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7">
+    <row r="7" spans="1:16" s="6" customFormat="1">
+      <c r="A7" s="6">
         <v>1</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7">
         <v>42877</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="8">
         <v>0.31041666666666667</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="6">
         <v>27.3</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="8">
         <v>0.45</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="6">
         <v>29.9</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="6">
         <v>7.05</v>
       </c>
-      <c r="N7" s="4">
+      <c r="N7" s="9">
         <f t="shared" si="0"/>
         <v>3.35</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="6">
         <f t="shared" si="1"/>
         <v>2.4500000000000002</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="9">
         <f t="shared" si="2"/>
         <v>0.73134328358208955</v>
       </c>
@@ -1202,320 +1290,320 @@
         <v>0.35081967213114723</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14">
+    <row r="14" spans="1:16" s="6" customFormat="1">
+      <c r="A14" s="6">
         <v>2</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="6">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="1">
+      <c r="C14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="7">
         <v>42922</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="8">
         <v>0.30069444444444443</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="6">
         <v>30.3</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="6">
         <v>9.5</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="8">
         <v>0.38680555555555557</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="6">
         <v>30.4</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="6">
         <v>11.19</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="9">
         <f t="shared" si="0"/>
         <v>2.0666666666666673</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="6">
         <f t="shared" si="1"/>
         <v>1.6899999999999995</v>
       </c>
-      <c r="P14" s="4">
+      <c r="P14" s="9">
         <f t="shared" si="2"/>
         <v>0.81774193548387042</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15">
+    <row r="15" spans="1:16" s="6" customFormat="1">
+      <c r="A15" s="6">
         <v>2</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="6">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="1">
+      <c r="C15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="7">
         <v>42922</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="8">
         <v>0.29930555555555555</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="6">
         <v>30.3</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="6">
         <v>9.44</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="8">
         <v>0.38541666666666669</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="6">
         <v>30.6</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="6">
         <v>11.23</v>
       </c>
-      <c r="N15" s="4">
+      <c r="N15" s="9">
         <f t="shared" si="0"/>
         <v>2.0666666666666673</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="6">
         <f t="shared" si="1"/>
         <v>1.7900000000000009</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P15" s="9">
         <f t="shared" si="2"/>
         <v>0.8661290322580647</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16">
+    <row r="16" spans="1:16" s="6" customFormat="1">
+      <c r="A16" s="6">
         <v>2</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="6">
         <v>15</v>
       </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="1">
+      <c r="C16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="7">
         <v>42922</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="8">
         <v>0.29722222222222222</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="6">
         <v>30.1</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="6">
         <v>9.36</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="8">
         <v>0.3840277777777778</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="6">
         <v>30.7</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="6">
         <v>11.16</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="9">
         <f t="shared" si="0"/>
         <v>2.0833333333333339</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="6">
         <f t="shared" si="1"/>
         <v>1.8000000000000007</v>
       </c>
-      <c r="P16" s="4">
+      <c r="P16" s="9">
         <f t="shared" si="2"/>
         <v>0.8640000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
-      <c r="A17">
+    <row r="17" spans="1:16" s="6" customFormat="1">
+      <c r="A17" s="6">
         <v>2</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="6">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="1">
+      <c r="C17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="7">
         <v>42922</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="8">
         <v>0.29305555555555557</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="6">
         <v>30.2</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="6">
         <v>11.48</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="8">
         <v>0.38263888888888892</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="6">
         <v>30.8</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="6">
         <v>11.15</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="9">
         <f t="shared" si="0"/>
         <v>2.1500000000000004</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="6">
         <f t="shared" si="1"/>
         <v>-0.33000000000000007</v>
       </c>
-      <c r="P17" s="4">
+      <c r="P17" s="9">
         <f t="shared" si="2"/>
         <v>-0.15348837209302327</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
-      <c r="A18">
+    <row r="18" spans="1:16" s="6" customFormat="1">
+      <c r="A18" s="6">
         <v>2</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="6">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="1">
+      <c r="C18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="7">
         <v>42922</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="8">
         <v>0.28819444444444448</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="6">
         <v>30.3</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="6">
         <v>11.95</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="8">
         <v>0.38194444444444442</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="6">
         <v>31.5</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="6">
         <v>9.56</v>
       </c>
-      <c r="N18" s="4">
+      <c r="N18" s="9">
         <f t="shared" si="0"/>
         <v>2.2499999999999987</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="6">
         <f t="shared" si="1"/>
         <v>-2.3899999999999988</v>
       </c>
-      <c r="P18" s="4">
+      <c r="P18" s="9">
         <f t="shared" si="2"/>
         <v>-1.0622222222222224</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
-      <c r="A19">
+    <row r="19" spans="1:16" s="6" customFormat="1">
+      <c r="A19" s="6">
         <v>2</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="6">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="1">
+      <c r="C19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="7">
         <v>42922</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="8">
         <v>0.28333333333333333</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="6">
         <v>30.4</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="6">
         <v>9.15</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="8">
         <v>0.38055555555555554</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="6">
         <v>33.200000000000003</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="6">
         <v>9.61</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="9">
         <f t="shared" si="0"/>
         <v>2.333333333333333</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="6">
         <f t="shared" si="1"/>
         <v>0.45999999999999908</v>
       </c>
-      <c r="P19" s="4">
+      <c r="P19" s="9">
         <f t="shared" si="2"/>
         <v>0.19714285714285676</v>
       </c>
@@ -1838,320 +1926,320 @@
         <v>-0.11707317073170652</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26">
+    <row r="26" spans="1:16" s="6" customFormat="1">
+      <c r="A26" s="6">
         <v>3</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="6">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="1">
+      <c r="C26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="7">
         <v>42934</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="8">
         <v>0.32291666666666669</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="6">
         <v>31.4</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="6">
         <v>7.57</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="8">
         <v>0.42638888888888887</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="6">
         <v>33.1</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="6">
         <v>9.18</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="9">
         <f t="shared" si="0"/>
         <v>2.4833333333333325</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="6">
         <f t="shared" si="1"/>
         <v>1.6099999999999994</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26" s="9">
         <f t="shared" si="2"/>
         <v>0.64832214765100671</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
-      <c r="A27">
+    <row r="27" spans="1:16" s="6" customFormat="1">
+      <c r="A27" s="6">
         <v>3</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="C27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="7">
         <v>42934</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="8">
         <v>0.32500000000000001</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="6">
         <v>31.4</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="6">
         <v>7.68</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="8">
         <v>0.42708333333333331</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="6">
         <v>32.799999999999997</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="6">
         <v>9.5399999999999991</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="9">
         <f t="shared" si="0"/>
         <v>2.4499999999999993</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="6">
         <f t="shared" si="1"/>
         <v>1.8599999999999994</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27" s="9">
         <f t="shared" si="2"/>
         <v>0.75918367346938775</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
-      <c r="A28">
+    <row r="28" spans="1:16" s="6" customFormat="1">
+      <c r="A28" s="6">
         <v>3</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="6">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="C28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="7">
         <v>42934</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="8">
         <v>0.3263888888888889</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="6">
         <v>31.5</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="6">
         <v>7.87</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="8">
         <v>0.4284722222222222</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="6">
         <v>32.700000000000003</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="6">
         <v>9.64</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="9">
         <f t="shared" si="0"/>
         <v>2.4499999999999993</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="6">
         <f t="shared" si="1"/>
         <v>1.7700000000000005</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P28" s="9">
         <f t="shared" si="2"/>
         <v>0.72244897959183718</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
-      <c r="A29">
+    <row r="29" spans="1:16" s="6" customFormat="1">
+      <c r="A29" s="6">
         <v>3</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="1">
+      <c r="C29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="7">
         <v>42934</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="8">
         <v>0.32777777777777778</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="6">
         <v>31.5</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="6">
         <v>7.9</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="8">
         <v>0.4291666666666667</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="6">
         <v>32.6</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="6">
         <v>9.57</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N29" s="9">
         <f t="shared" si="0"/>
         <v>2.433333333333334</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="6">
         <f t="shared" si="1"/>
         <v>1.67</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P29" s="9">
         <f t="shared" si="2"/>
         <v>0.68630136986301349</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
-      <c r="A30">
+    <row r="30" spans="1:16" s="6" customFormat="1">
+      <c r="A30" s="6">
         <v>3</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="6">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="1">
+      <c r="C30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="7">
         <v>42934</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="8">
         <v>0.32916666666666666</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="6">
         <v>31.6</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="6">
         <v>7.94</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="8">
         <v>0.42986111111111108</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="6">
         <v>32.799999999999997</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="6">
         <v>9.84</v>
       </c>
-      <c r="N30" s="4">
+      <c r="N30" s="9">
         <f t="shared" si="0"/>
         <v>2.4166666666666661</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="6">
         <f t="shared" si="1"/>
         <v>1.8999999999999995</v>
       </c>
-      <c r="P30" s="4">
+      <c r="P30" s="9">
         <f t="shared" si="2"/>
         <v>0.78620689655172415</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
-      <c r="A31">
+    <row r="31" spans="1:16" s="6" customFormat="1">
+      <c r="A31" s="6">
         <v>3</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="6">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="1">
+      <c r="C31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="7">
         <v>42934</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="8">
         <v>0.33055555555555555</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="6">
         <v>31.6</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="6">
         <v>7.82</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="8">
         <v>0.43124999999999997</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="6">
         <v>32.700000000000003</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="6">
         <v>9.69</v>
       </c>
-      <c r="N31" s="4">
+      <c r="N31" s="9">
         <f t="shared" si="0"/>
         <v>2.4166666666666661</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="6">
         <f t="shared" si="1"/>
         <v>1.8699999999999992</v>
       </c>
-      <c r="P31" s="4">
+      <c r="P31" s="9">
         <f t="shared" si="2"/>
         <v>0.77379310344827568</v>
       </c>
@@ -2474,320 +2562,320 @@
         <v>-0.16285714285714292</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
-      <c r="A38">
+    <row r="38" spans="1:16" s="6" customFormat="1">
+      <c r="A38" s="6">
         <v>3</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="6">
         <v>37</v>
       </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="C38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="7">
         <v>42934</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="8">
         <v>0.29444444444444445</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="6">
         <v>30.8</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="6">
         <v>4.17</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="8">
         <v>0.41041666666666665</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="6">
         <v>32.200000000000003</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="6">
         <v>5.53</v>
       </c>
-      <c r="N38" s="4">
+      <c r="N38" s="9">
         <f t="shared" si="0"/>
         <v>2.7833333333333328</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="6">
         <f t="shared" si="1"/>
         <v>1.3600000000000003</v>
       </c>
-      <c r="P38" s="4">
+      <c r="P38" s="9">
         <f t="shared" si="2"/>
         <v>0.48862275449101816</v>
       </c>
     </row>
-    <row r="39" spans="1:16">
-      <c r="A39">
+    <row r="39" spans="1:16" s="6" customFormat="1">
+      <c r="A39" s="6">
         <v>3</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="6">
         <v>38</v>
       </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="7">
         <v>42934</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="8">
         <v>0.29652777777777778</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="6">
         <v>30.8</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="6">
         <v>4.2300000000000004</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="8">
         <v>0.41111111111111115</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="6">
         <v>31.6</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="6">
         <v>5.35</v>
       </c>
-      <c r="N39" s="4">
+      <c r="N39" s="9">
         <f t="shared" si="0"/>
         <v>2.7500000000000009</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="6">
         <f t="shared" si="1"/>
         <v>1.1199999999999992</v>
       </c>
-      <c r="P39" s="4">
+      <c r="P39" s="9">
         <f t="shared" si="2"/>
         <v>0.40727272727272684</v>
       </c>
     </row>
-    <row r="40" spans="1:16">
-      <c r="A40">
+    <row r="40" spans="1:16" s="6" customFormat="1">
+      <c r="A40" s="6">
         <v>3</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="6">
         <v>39</v>
       </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="7">
         <v>42934</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="8">
         <v>0.29791666666666666</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="6">
         <v>30.8</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="6">
         <v>4.2300000000000004</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="8">
         <v>0.41250000000000003</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="6">
         <v>31.5</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="6">
         <v>5.09</v>
       </c>
-      <c r="N40" s="4">
+      <c r="N40" s="9">
         <f t="shared" si="0"/>
         <v>2.7500000000000009</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="6">
         <f t="shared" si="1"/>
         <v>0.85999999999999943</v>
       </c>
-      <c r="P40" s="4">
+      <c r="P40" s="9">
         <f t="shared" si="2"/>
         <v>0.31272727272727241</v>
       </c>
     </row>
-    <row r="41" spans="1:16">
-      <c r="A41">
+    <row r="41" spans="1:16" s="6" customFormat="1">
+      <c r="A41" s="6">
         <v>3</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="6">
         <v>40</v>
       </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="7">
         <v>42934</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="8">
         <v>0.29930555555555555</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="6">
         <v>30.8</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="6">
         <v>4.29</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="8">
         <v>0.41388888888888892</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="6">
         <v>31.4</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="6">
         <v>5.57</v>
       </c>
-      <c r="N41" s="4">
+      <c r="N41" s="9">
         <f t="shared" si="0"/>
         <v>2.7500000000000009</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="6">
         <f t="shared" si="1"/>
         <v>1.2800000000000002</v>
       </c>
-      <c r="P41" s="4">
+      <c r="P41" s="9">
         <f t="shared" si="2"/>
         <v>0.4654545454545454</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
-      <c r="A42">
+    <row r="42" spans="1:16" s="6" customFormat="1">
+      <c r="A42" s="6">
         <v>3</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="6">
         <v>41</v>
       </c>
-      <c r="C42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="C42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="7">
         <v>42934</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="8">
         <v>0.30069444444444443</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="6">
         <v>30.9</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="6">
         <v>4.2300000000000004</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="8">
         <v>0.4145833333333333</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="6">
         <v>31.5</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="6">
         <v>5.59</v>
       </c>
-      <c r="N42" s="4">
+      <c r="N42" s="9">
         <f t="shared" si="0"/>
         <v>2.7333333333333329</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="6">
         <f t="shared" si="1"/>
         <v>1.3599999999999994</v>
       </c>
-      <c r="P42" s="4">
+      <c r="P42" s="9">
         <f t="shared" si="2"/>
         <v>0.49756097560975598</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
-      <c r="A43">
+    <row r="43" spans="1:16" s="6" customFormat="1">
+      <c r="A43" s="6">
         <v>3</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="6">
         <v>42</v>
       </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="7">
         <v>42934</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="8">
         <v>0.30208333333333331</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="6">
         <v>30.9</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="6">
         <v>4.17</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="8">
         <v>0.41597222222222219</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="6">
         <v>31.5</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="6">
         <v>5.65</v>
       </c>
-      <c r="N43" s="4">
+      <c r="N43" s="9">
         <f t="shared" si="0"/>
         <v>2.7333333333333329</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="6">
         <f t="shared" si="1"/>
         <v>1.4800000000000004</v>
       </c>
-      <c r="P43" s="4">
+      <c r="P43" s="9">
         <f t="shared" si="2"/>
         <v>0.5414634146341466</v>
       </c>
@@ -3110,320 +3198,320 @@
         <v>-0.11012658227848103</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
-      <c r="A50">
+    <row r="50" spans="1:16" s="6" customFormat="1">
+      <c r="A50" s="6">
         <v>4</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="6">
         <v>49</v>
       </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="1">
+      <c r="C50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="7">
         <v>42937</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="8">
         <v>0.27361111111111108</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="6">
         <v>31.3</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="6">
         <v>6.66</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="8">
         <v>0.38611111111111113</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="6">
         <v>32</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="6">
         <v>7.84</v>
       </c>
-      <c r="N50" s="4">
+      <c r="N50" s="9">
         <f t="shared" si="0"/>
         <v>2.7000000000000011</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="6">
         <f t="shared" si="1"/>
         <v>1.1799999999999997</v>
       </c>
-      <c r="P50" s="4">
+      <c r="P50" s="9">
         <f t="shared" si="2"/>
         <v>0.43703703703703678</v>
       </c>
     </row>
-    <row r="51" spans="1:16">
-      <c r="A51">
+    <row r="51" spans="1:16" s="6" customFormat="1">
+      <c r="A51" s="6">
         <v>4</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="6">
         <v>50</v>
       </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="1">
+      <c r="C51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="7">
         <v>42937</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="8">
         <v>0.27499999999999997</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="6">
         <v>31.2</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="6">
         <v>6.72</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="8">
         <v>0.38680555555555557</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="6">
         <v>32.1</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="6">
         <v>7.92</v>
       </c>
-      <c r="N51" s="4">
+      <c r="N51" s="9">
         <f t="shared" si="0"/>
         <v>2.6833333333333345</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="6">
         <f t="shared" si="1"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="P51" s="4">
+      <c r="P51" s="9">
         <f t="shared" si="2"/>
         <v>0.44720496894409928</v>
       </c>
     </row>
-    <row r="52" spans="1:16">
-      <c r="A52">
+    <row r="52" spans="1:16" s="6" customFormat="1">
+      <c r="A52" s="6">
         <v>4</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="6">
         <v>51</v>
       </c>
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="1">
+      <c r="C52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="7">
         <v>42937</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="8">
         <v>0.27569444444444446</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="6">
         <v>31.2</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="6">
         <v>6.66</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="8">
         <v>0.38750000000000001</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="6">
         <v>31.9</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="6">
         <v>7.89</v>
       </c>
-      <c r="N52" s="4">
+      <c r="N52" s="9">
         <f t="shared" si="0"/>
         <v>2.6833333333333331</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="6">
         <f t="shared" si="1"/>
         <v>1.2299999999999995</v>
       </c>
-      <c r="P52" s="4">
+      <c r="P52" s="9">
         <f t="shared" si="2"/>
         <v>0.45838509316770171</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
-      <c r="A53">
+    <row r="53" spans="1:16" s="6" customFormat="1">
+      <c r="A53" s="6">
         <v>4</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="6">
         <v>52</v>
       </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E53" s="1">
+      <c r="C53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="7">
         <v>42937</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="8">
         <v>0.27708333333333335</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="6">
         <v>31.3</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="6">
         <v>6.68</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53" s="8">
         <v>0.3888888888888889</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="6">
         <v>31.9</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="6">
         <v>7.87</v>
       </c>
-      <c r="N53" s="4">
+      <c r="N53" s="9">
         <f t="shared" si="0"/>
         <v>2.6833333333333331</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="6">
         <f t="shared" si="1"/>
         <v>1.1900000000000004</v>
       </c>
-      <c r="P53" s="4">
+      <c r="P53" s="9">
         <f t="shared" si="2"/>
         <v>0.44347826086956538</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
-      <c r="A54">
+    <row r="54" spans="1:16" s="6" customFormat="1">
+      <c r="A54" s="6">
         <v>4</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="6">
         <v>53</v>
       </c>
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s">
-        <v>12</v>
-      </c>
-      <c r="E54" s="1">
+      <c r="C54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="7">
         <v>42937</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="8">
         <v>0.27847222222222223</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="6">
         <v>31.3</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="6">
         <v>6.65</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54" s="8">
         <v>0.39027777777777778</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="6">
         <v>32</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="6">
         <v>7.9</v>
       </c>
-      <c r="N54" s="4">
+      <c r="N54" s="9">
         <f t="shared" si="0"/>
         <v>2.6833333333333331</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="6">
         <f t="shared" si="1"/>
         <v>1.25</v>
       </c>
-      <c r="P54" s="4">
+      <c r="P54" s="9">
         <f t="shared" si="2"/>
         <v>0.46583850931677023</v>
       </c>
     </row>
-    <row r="55" spans="1:16">
-      <c r="A55">
+    <row r="55" spans="1:16" s="6" customFormat="1">
+      <c r="A55" s="6">
         <v>4</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="6">
         <v>54</v>
       </c>
-      <c r="C55" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="1">
+      <c r="C55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55" s="7">
         <v>42937</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="8">
         <v>0.27916666666666667</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="6">
         <v>31.3</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="6">
         <v>6.68</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K55" s="8">
         <v>0.39166666666666666</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="6">
         <v>31.9</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="6">
         <v>8</v>
       </c>
-      <c r="N55" s="4">
+      <c r="N55" s="9">
         <f t="shared" si="0"/>
         <v>2.6999999999999997</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="6">
         <f t="shared" si="1"/>
         <v>1.3200000000000003</v>
       </c>
-      <c r="P55" s="4">
+      <c r="P55" s="9">
         <f t="shared" si="2"/>
         <v>0.48888888888888904</v>
       </c>
@@ -3746,320 +3834,320 @@
         <v>-5.5319148936170556E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:16">
-      <c r="A62">
+    <row r="62" spans="1:16" s="6" customFormat="1">
+      <c r="A62" s="6">
         <v>4</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="6">
         <v>61</v>
       </c>
-      <c r="C62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="7">
         <v>42937</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="8">
         <v>0.29375000000000001</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="6">
         <v>31.5</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="6">
         <v>4</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K62" s="8">
         <v>0.40347222222222223</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="6">
         <v>32.700000000000003</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="6">
         <v>4.57</v>
       </c>
-      <c r="N62" s="4">
+      <c r="N62" s="9">
         <f t="shared" si="0"/>
         <v>2.6333333333333333</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="6">
         <f t="shared" si="1"/>
         <v>0.57000000000000028</v>
       </c>
-      <c r="P62" s="4">
+      <c r="P62" s="9">
         <f t="shared" si="2"/>
         <v>0.21645569620253174</v>
       </c>
     </row>
-    <row r="63" spans="1:16">
-      <c r="A63">
+    <row r="63" spans="1:16" s="6" customFormat="1">
+      <c r="A63" s="6">
         <v>4</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="6">
         <v>62</v>
       </c>
-      <c r="C63" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="C63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="7">
         <v>42937</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="8">
         <v>0.2951388888888889</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="6">
         <v>31.5</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="6">
         <v>3.87</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K63" s="8">
         <v>0.40416666666666662</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="6">
         <v>32.299999999999997</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="6">
         <v>4.49</v>
       </c>
-      <c r="N63" s="4">
+      <c r="N63" s="9">
         <f t="shared" si="0"/>
         <v>2.6166666666666654</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="6">
         <f t="shared" si="1"/>
         <v>0.62000000000000011</v>
       </c>
-      <c r="P63" s="4">
+      <c r="P63" s="9">
         <f t="shared" si="2"/>
         <v>0.23694267515923584</v>
       </c>
     </row>
-    <row r="64" spans="1:16">
-      <c r="A64">
+    <row r="64" spans="1:16" s="6" customFormat="1">
+      <c r="A64" s="6">
         <v>4</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="6">
         <v>63</v>
       </c>
-      <c r="C64" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="C64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="7">
         <v>42937</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="8">
         <v>0.29583333333333334</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="6">
         <v>31.6</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="6">
         <v>3.88</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K64" s="8">
         <v>0.4055555555555555</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="6">
         <v>32.200000000000003</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="6">
         <v>4.22</v>
       </c>
-      <c r="N64" s="4">
+      <c r="N64" s="9">
         <f t="shared" si="0"/>
         <v>2.633333333333332</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="6">
         <f t="shared" si="1"/>
         <v>0.33999999999999986</v>
       </c>
-      <c r="P64" s="4">
+      <c r="P64" s="9">
         <f t="shared" si="2"/>
         <v>0.12911392405063293</v>
       </c>
     </row>
-    <row r="65" spans="1:16">
-      <c r="A65">
+    <row r="65" spans="1:16" s="6" customFormat="1">
+      <c r="A65" s="6">
         <v>4</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="6">
         <v>64</v>
       </c>
-      <c r="C65" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="7">
         <v>42937</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="8">
         <v>0.29722222222222222</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="6">
         <v>31.6</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="6">
         <v>3.96</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K65" s="8">
         <v>0.40625</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="6">
         <v>32</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="6">
         <v>4.2300000000000004</v>
       </c>
-      <c r="N65" s="4">
+      <c r="N65" s="9">
         <f t="shared" si="0"/>
         <v>2.6166666666666667</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="6">
         <f t="shared" si="1"/>
         <v>0.27000000000000046</v>
       </c>
-      <c r="P65" s="4">
+      <c r="P65" s="9">
         <f t="shared" si="2"/>
         <v>0.10318471337579635</v>
       </c>
     </row>
-    <row r="66" spans="1:16">
-      <c r="A66">
+    <row r="66" spans="1:16" s="6" customFormat="1">
+      <c r="A66" s="6">
         <v>4</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="6">
         <v>65</v>
       </c>
-      <c r="C66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="C66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" s="7">
         <v>42937</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="8">
         <v>0.2986111111111111</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="6">
         <v>31.6</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="6">
         <v>3.48</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K66" s="8">
         <v>0.4069444444444445</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="6">
         <v>32</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="6">
         <v>3.92</v>
       </c>
-      <c r="N66" s="4">
+      <c r="N66" s="9">
         <f t="shared" si="0"/>
         <v>2.6000000000000014</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="6">
         <f t="shared" si="1"/>
         <v>0.43999999999999995</v>
       </c>
-      <c r="P66" s="4">
+      <c r="P66" s="9">
         <f t="shared" si="2"/>
         <v>0.16923076923076913</v>
       </c>
     </row>
-    <row r="67" spans="1:16">
-      <c r="A67">
+    <row r="67" spans="1:16" s="6" customFormat="1">
+      <c r="A67" s="6">
         <v>4</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="6">
         <v>66</v>
       </c>
-      <c r="C67" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="7">
         <v>42937</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="8">
         <v>0.29930555555555555</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="6">
         <v>31.6</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="6">
         <v>3.42</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67" s="8">
         <v>0.40763888888888888</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="6">
         <v>32.299999999999997</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="6">
         <v>4.04</v>
       </c>
-      <c r="N67" s="4">
+      <c r="N67" s="9">
         <f t="shared" ref="N67:N130" si="3">(K67-H67)*24</f>
         <v>2.6</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="6">
         <f t="shared" ref="O67:O130" si="4">M67-J67</f>
         <v>0.62000000000000011</v>
       </c>
-      <c r="P67" s="4">
+      <c r="P67" s="9">
         <f t="shared" ref="P67:P130" si="5">O67/N67</f>
         <v>0.2384615384615385</v>
       </c>
@@ -4382,320 +4470,320 @@
         <v>-7.0129870129870181E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:16">
-      <c r="A74">
+    <row r="74" spans="1:16" s="6" customFormat="1">
+      <c r="A74" s="6">
         <v>5</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="6">
         <v>73</v>
       </c>
-      <c r="C74" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="C74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="7">
         <v>42996</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H74" s="8">
         <v>0.29583333333333334</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="6">
         <v>27.4</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="6">
         <v>2.81</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K74" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="6">
         <v>28.6</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="6">
         <v>3.13</v>
       </c>
-      <c r="N74" s="4">
+      <c r="N74" s="9">
         <f t="shared" si="3"/>
         <v>2.9000000000000004</v>
       </c>
-      <c r="O74">
+      <c r="O74" s="6">
         <f t="shared" si="4"/>
         <v>0.31999999999999984</v>
       </c>
-      <c r="P74" s="4">
+      <c r="P74" s="9">
         <f t="shared" si="5"/>
         <v>0.11034482758620683</v>
       </c>
     </row>
-    <row r="75" spans="1:16">
-      <c r="A75">
+    <row r="75" spans="1:16" s="6" customFormat="1">
+      <c r="A75" s="6">
         <v>5</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="6">
         <v>74</v>
       </c>
-      <c r="C75" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="C75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" s="7">
         <v>42996</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="8">
         <v>0.29375000000000001</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="6">
         <v>27.2</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="6">
         <v>2.81</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K75" s="8">
         <v>0.41736111111111113</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="6">
         <v>28.3</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="6">
         <v>3.16</v>
       </c>
-      <c r="N75" s="4">
+      <c r="N75" s="9">
         <f t="shared" si="3"/>
         <v>2.9666666666666668</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="6">
         <f t="shared" si="4"/>
         <v>0.35000000000000009</v>
       </c>
-      <c r="P75" s="4">
+      <c r="P75" s="9">
         <f t="shared" si="5"/>
         <v>0.11797752808988766</v>
       </c>
     </row>
-    <row r="76" spans="1:16">
-      <c r="A76">
+    <row r="76" spans="1:16" s="6" customFormat="1">
+      <c r="A76" s="6">
         <v>5</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="6">
         <v>75</v>
       </c>
-      <c r="C76" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="C76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76" s="7">
         <v>42996</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H76" s="8">
         <v>0.29236111111111113</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="6">
         <v>26.8</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="6">
         <v>2.92</v>
       </c>
-      <c r="K76" s="2">
+      <c r="K76" s="8">
         <v>0.41875000000000001</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="6">
         <v>24.4</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="6">
         <v>3.24</v>
       </c>
-      <c r="N76" s="4">
+      <c r="N76" s="9">
         <f t="shared" si="3"/>
         <v>3.0333333333333332</v>
       </c>
-      <c r="O76">
+      <c r="O76" s="6">
         <f t="shared" si="4"/>
         <v>0.32000000000000028</v>
       </c>
-      <c r="P76" s="4">
+      <c r="P76" s="9">
         <f t="shared" si="5"/>
         <v>0.10549450549450559</v>
       </c>
     </row>
-    <row r="77" spans="1:16">
-      <c r="A77">
+    <row r="77" spans="1:16" s="6" customFormat="1">
+      <c r="A77" s="6">
         <v>5</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="6">
         <v>76</v>
       </c>
-      <c r="C77" t="s">
-        <v>11</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="C77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77" s="7">
         <v>42996</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H77" s="8">
         <v>0.29652777777777778</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="6">
         <v>27.4</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="6">
         <v>2.78</v>
       </c>
-      <c r="K77" s="2">
+      <c r="K77" s="8">
         <v>0.41944444444444445</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="6">
         <v>28.3</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="6">
         <v>3.02</v>
       </c>
-      <c r="N77" s="4">
+      <c r="N77" s="9">
         <f t="shared" si="3"/>
         <v>2.95</v>
       </c>
-      <c r="O77">
+      <c r="O77" s="6">
         <f t="shared" si="4"/>
         <v>0.24000000000000021</v>
       </c>
-      <c r="P77" s="4">
+      <c r="P77" s="9">
         <f t="shared" si="5"/>
         <v>8.1355932203389894E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:16">
-      <c r="A78">
+    <row r="78" spans="1:16" s="6" customFormat="1">
+      <c r="A78" s="6">
         <v>5</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="6">
         <v>77</v>
       </c>
-      <c r="C78" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="C78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="7">
         <v>42996</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H78" s="2">
+      <c r="H78" s="8">
         <v>0.2986111111111111</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="6">
         <v>27.3</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="6">
         <v>2.77</v>
       </c>
-      <c r="K78" s="2">
+      <c r="K78" s="8">
         <v>0.42083333333333334</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="6">
         <v>28.4</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="6">
         <v>3.04</v>
       </c>
-      <c r="N78" s="4">
+      <c r="N78" s="9">
         <f t="shared" si="3"/>
         <v>2.9333333333333336</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="6">
         <f t="shared" si="4"/>
         <v>0.27</v>
       </c>
-      <c r="P78" s="4">
+      <c r="P78" s="9">
         <f t="shared" si="5"/>
         <v>9.2045454545454541E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:16">
-      <c r="A79">
+    <row r="79" spans="1:16" s="6" customFormat="1">
+      <c r="A79" s="6">
         <v>5</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="6">
         <v>78</v>
       </c>
-      <c r="C79" t="s">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="C79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79" s="7">
         <v>42996</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H79" s="8">
         <v>0.30069444444444443</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="6">
         <v>27.3</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="6">
         <v>2.74</v>
       </c>
-      <c r="K79" s="2">
+      <c r="K79" s="8">
         <v>0.42222222222222222</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="6">
         <v>28.4</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="6">
         <v>3.02</v>
       </c>
-      <c r="N79" s="4">
+      <c r="N79" s="9">
         <f t="shared" si="3"/>
         <v>2.916666666666667</v>
       </c>
-      <c r="O79">
+      <c r="O79" s="6">
         <f t="shared" si="4"/>
         <v>0.2799999999999998</v>
       </c>
-      <c r="P79" s="4">
+      <c r="P79" s="9">
         <f t="shared" si="5"/>
         <v>9.5999999999999919E-2</v>
       </c>
@@ -5018,320 +5106,320 @@
         <v>-1.3872832369942214E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:16">
-      <c r="A86">
+    <row r="86" spans="1:16" s="6" customFormat="1">
+      <c r="A86" s="6">
         <v>6</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="6">
         <v>85</v>
       </c>
-      <c r="C86" t="s">
-        <v>11</v>
-      </c>
-      <c r="D86" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" s="1">
+      <c r="C86" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="7">
         <v>43007</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H86" s="2">
+      <c r="H86" s="8">
         <v>0.29722222222222222</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="6">
         <v>27.7</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="6">
         <v>6.38</v>
       </c>
-      <c r="K86" s="2">
+      <c r="K86" s="8">
         <v>0.40416666666666662</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="6">
         <v>29.6</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="6">
         <v>7.01</v>
       </c>
-      <c r="N86" s="4">
+      <c r="N86" s="9">
         <f t="shared" si="3"/>
         <v>2.5666666666666655</v>
       </c>
-      <c r="O86">
+      <c r="O86" s="6">
         <f t="shared" si="4"/>
         <v>0.62999999999999989</v>
       </c>
-      <c r="P86" s="4">
+      <c r="P86" s="9">
         <f t="shared" si="5"/>
         <v>0.24545454545454551</v>
       </c>
     </row>
-    <row r="87" spans="1:16">
-      <c r="A87">
+    <row r="87" spans="1:16" s="6" customFormat="1">
+      <c r="A87" s="6">
         <v>6</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="6">
         <v>86</v>
       </c>
-      <c r="C87" t="s">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" s="1">
+      <c r="C87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="7">
         <v>43007</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H87" s="8">
         <v>0.2986111111111111</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="6">
         <v>27.4</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="6">
         <v>6.32</v>
       </c>
-      <c r="K87" s="2">
+      <c r="K87" s="8">
         <v>0.4055555555555555</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="6">
         <v>29.7</v>
       </c>
-      <c r="M87">
+      <c r="M87" s="6">
         <v>7.14</v>
       </c>
-      <c r="N87" s="4">
+      <c r="N87" s="9">
         <f t="shared" si="3"/>
         <v>2.5666666666666655</v>
       </c>
-      <c r="O87">
+      <c r="O87" s="6">
         <f t="shared" si="4"/>
         <v>0.8199999999999994</v>
       </c>
-      <c r="P87" s="4">
+      <c r="P87" s="9">
         <f t="shared" si="5"/>
         <v>0.31948051948051936</v>
       </c>
     </row>
-    <row r="88" spans="1:16">
-      <c r="A88">
+    <row r="88" spans="1:16" s="6" customFormat="1">
+      <c r="A88" s="6">
         <v>6</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="6">
         <v>87</v>
       </c>
-      <c r="C88" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" s="1">
+      <c r="C88" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="7">
         <v>43007</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H88" s="2">
+      <c r="H88" s="8">
         <v>0.29930555555555555</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="6">
         <v>27</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="6">
         <v>6.36</v>
       </c>
-      <c r="K88" s="2">
+      <c r="K88" s="8">
         <v>0.40625</v>
       </c>
-      <c r="L88">
+      <c r="L88" s="6">
         <v>29.5</v>
       </c>
-      <c r="M88">
+      <c r="M88" s="6">
         <v>7.16</v>
       </c>
-      <c r="N88" s="4">
+      <c r="N88" s="9">
         <f t="shared" si="3"/>
         <v>2.5666666666666669</v>
       </c>
-      <c r="O88">
+      <c r="O88" s="6">
         <f t="shared" si="4"/>
         <v>0.79999999999999982</v>
       </c>
-      <c r="P88" s="4">
+      <c r="P88" s="9">
         <f t="shared" si="5"/>
         <v>0.31168831168831157</v>
       </c>
     </row>
-    <row r="89" spans="1:16">
-      <c r="A89">
+    <row r="89" spans="1:16" s="6" customFormat="1">
+      <c r="A89" s="6">
         <v>6</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="6">
         <v>88</v>
       </c>
-      <c r="C89" t="s">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" s="1">
+      <c r="C89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" s="7">
         <v>43007</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H89" s="8">
         <v>0.3</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="6">
         <v>27.2</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="6">
         <v>6.4</v>
       </c>
-      <c r="K89" s="2">
+      <c r="K89" s="8">
         <v>0.40763888888888888</v>
       </c>
-      <c r="L89">
+      <c r="L89" s="6">
         <v>29.6</v>
       </c>
-      <c r="M89">
+      <c r="M89" s="6">
         <v>7.1</v>
       </c>
-      <c r="N89" s="4">
+      <c r="N89" s="9">
         <f t="shared" si="3"/>
         <v>2.5833333333333335</v>
       </c>
-      <c r="O89">
+      <c r="O89" s="6">
         <f t="shared" si="4"/>
         <v>0.69999999999999929</v>
       </c>
-      <c r="P89" s="4">
+      <c r="P89" s="9">
         <f t="shared" si="5"/>
         <v>0.27096774193548356</v>
       </c>
     </row>
-    <row r="90" spans="1:16">
-      <c r="A90">
+    <row r="90" spans="1:16" s="6" customFormat="1">
+      <c r="A90" s="6">
         <v>6</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="6">
         <v>89</v>
       </c>
-      <c r="C90" t="s">
-        <v>11</v>
-      </c>
-      <c r="D90" t="s">
-        <v>12</v>
-      </c>
-      <c r="E90" s="1">
+      <c r="C90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="7">
         <v>43007</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H90" s="8">
         <v>0.30069444444444443</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="6">
         <v>27</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="6">
         <v>6.39</v>
       </c>
-      <c r="K90" s="2">
+      <c r="K90" s="8">
         <v>0.40902777777777777</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="6">
         <v>29.7</v>
       </c>
-      <c r="M90">
+      <c r="M90" s="6">
         <v>7.19</v>
       </c>
-      <c r="N90" s="4">
+      <c r="N90" s="9">
         <f t="shared" si="3"/>
         <v>2.6</v>
       </c>
-      <c r="O90">
+      <c r="O90" s="6">
         <f t="shared" si="4"/>
         <v>0.80000000000000071</v>
       </c>
-      <c r="P90" s="4">
+      <c r="P90" s="9">
         <f t="shared" si="5"/>
         <v>0.30769230769230793</v>
       </c>
     </row>
-    <row r="91" spans="1:16">
-      <c r="A91">
+    <row r="91" spans="1:16" s="6" customFormat="1">
+      <c r="A91" s="6">
         <v>6</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="6">
         <v>90</v>
       </c>
-      <c r="C91" t="s">
-        <v>11</v>
-      </c>
-      <c r="D91" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91" s="1">
+      <c r="C91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="7">
         <v>43007</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H91" s="2">
+      <c r="H91" s="8">
         <v>0.30208333333333331</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="6">
         <v>26.7</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="6">
         <v>6.4</v>
       </c>
-      <c r="K91" s="2">
+      <c r="K91" s="8">
         <v>0.40972222222222227</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="6">
         <v>29.7</v>
       </c>
-      <c r="M91">
+      <c r="M91" s="6">
         <v>7.2</v>
       </c>
-      <c r="N91" s="4">
+      <c r="N91" s="9">
         <f t="shared" si="3"/>
         <v>2.5833333333333348</v>
       </c>
-      <c r="O91">
+      <c r="O91" s="6">
         <f t="shared" si="4"/>
         <v>0.79999999999999982</v>
       </c>
-      <c r="P91" s="4">
+      <c r="P91" s="9">
         <f t="shared" si="5"/>
         <v>0.30967741935483845</v>
       </c>
@@ -5654,320 +5742,320 @@
         <v>-0.12531645569620256</v>
       </c>
     </row>
-    <row r="98" spans="1:16">
-      <c r="A98">
+    <row r="98" spans="1:16" s="6" customFormat="1">
+      <c r="A98" s="6">
         <v>6</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="6">
         <v>97</v>
       </c>
-      <c r="C98" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="C98" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98" s="7">
         <v>43007</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H98" s="8">
         <v>0.32013888888888892</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="6">
         <v>24.9</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="6">
         <v>3.48</v>
       </c>
-      <c r="K98" s="2">
+      <c r="K98" s="8">
         <v>0.42152777777777778</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="6">
         <v>27.2</v>
       </c>
-      <c r="M98">
+      <c r="M98" s="6">
         <v>3.78</v>
       </c>
-      <c r="N98" s="4">
+      <c r="N98" s="9">
         <f t="shared" si="3"/>
         <v>2.4333333333333327</v>
       </c>
-      <c r="O98">
+      <c r="O98" s="6">
         <f t="shared" si="4"/>
         <v>0.29999999999999982</v>
       </c>
-      <c r="P98" s="4">
+      <c r="P98" s="9">
         <f t="shared" si="5"/>
         <v>0.12328767123287668</v>
       </c>
     </row>
-    <row r="99" spans="1:16">
-      <c r="A99">
+    <row r="99" spans="1:16" s="6" customFormat="1">
+      <c r="A99" s="6">
         <v>6</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="6">
         <v>98</v>
       </c>
-      <c r="C99" t="s">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="C99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99" s="7">
         <v>43007</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H99" s="2">
+      <c r="H99" s="8">
         <v>0.32083333333333336</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="6">
         <v>24.9</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="6">
         <v>3.7</v>
       </c>
-      <c r="K99" s="2">
+      <c r="K99" s="8">
         <v>0.42291666666666666</v>
       </c>
-      <c r="L99">
+      <c r="L99" s="6">
         <v>26.9</v>
       </c>
-      <c r="M99">
+      <c r="M99" s="6">
         <v>3.99</v>
       </c>
-      <c r="N99" s="4">
+      <c r="N99" s="9">
         <f t="shared" si="3"/>
         <v>2.4499999999999993</v>
       </c>
-      <c r="O99">
+      <c r="O99" s="6">
         <f t="shared" si="4"/>
         <v>0.29000000000000004</v>
       </c>
-      <c r="P99" s="4">
+      <c r="P99" s="9">
         <f t="shared" si="5"/>
         <v>0.11836734693877556</v>
       </c>
     </row>
-    <row r="100" spans="1:16">
-      <c r="A100">
+    <row r="100" spans="1:16" s="6" customFormat="1">
+      <c r="A100" s="6">
         <v>6</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="6">
         <v>99</v>
       </c>
-      <c r="C100" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="C100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100" s="7">
         <v>43007</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H100" s="2">
+      <c r="H100" s="8">
         <v>0.32222222222222224</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="6">
         <v>24.9</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="6">
         <v>3.55</v>
       </c>
-      <c r="K100" s="2">
+      <c r="K100" s="8">
         <v>0.4236111111111111</v>
       </c>
-      <c r="L100">
+      <c r="L100" s="6">
         <v>26.8</v>
       </c>
-      <c r="M100">
+      <c r="M100" s="6">
         <v>3.77</v>
       </c>
-      <c r="N100" s="4">
+      <c r="N100" s="9">
         <f t="shared" si="3"/>
         <v>2.4333333333333327</v>
       </c>
-      <c r="O100">
+      <c r="O100" s="6">
         <f t="shared" si="4"/>
         <v>0.2200000000000002</v>
       </c>
-      <c r="P100" s="4">
+      <c r="P100" s="9">
         <f t="shared" si="5"/>
         <v>9.0410958904109689E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:16">
-      <c r="A101">
+    <row r="101" spans="1:16" s="6" customFormat="1">
+      <c r="A101" s="6">
         <v>6</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="6">
         <v>100</v>
       </c>
-      <c r="C101" t="s">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="C101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E101" s="7">
         <v>43007</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H101" s="8">
         <v>0.32361111111111113</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="6">
         <v>24.6</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="6">
         <v>3.74</v>
       </c>
-      <c r="K101" s="2">
+      <c r="K101" s="8">
         <v>0.42430555555555555</v>
       </c>
-      <c r="L101">
+      <c r="L101" s="6">
         <v>26.8</v>
       </c>
-      <c r="M101">
+      <c r="M101" s="6">
         <v>3.69</v>
       </c>
-      <c r="N101" s="4">
+      <c r="N101" s="9">
         <f t="shared" si="3"/>
         <v>2.4166666666666661</v>
       </c>
-      <c r="O101">
+      <c r="O101" s="6">
         <f t="shared" si="4"/>
         <v>-5.0000000000000266E-2</v>
       </c>
-      <c r="P101" s="4">
+      <c r="P101" s="9">
         <f t="shared" si="5"/>
         <v>-2.0689655172413907E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:16">
-      <c r="A102">
+    <row r="102" spans="1:16" s="6" customFormat="1">
+      <c r="A102" s="6">
         <v>6</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="6">
         <v>101</v>
       </c>
-      <c r="C102" t="s">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="C102" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102" s="7">
         <v>43007</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H102" s="2">
+      <c r="H102" s="8">
         <v>0.32500000000000001</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="6">
         <v>24.9</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="6">
         <v>3.41</v>
       </c>
-      <c r="K102" s="2">
+      <c r="K102" s="8">
         <v>0.42499999999999999</v>
       </c>
-      <c r="L102">
+      <c r="L102" s="6">
         <v>26.7</v>
       </c>
-      <c r="M102">
+      <c r="M102" s="6">
         <v>3.7</v>
       </c>
-      <c r="N102" s="4">
+      <c r="N102" s="9">
         <f t="shared" si="3"/>
         <v>2.3999999999999995</v>
       </c>
-      <c r="O102">
+      <c r="O102" s="6">
         <f t="shared" si="4"/>
         <v>0.29000000000000004</v>
       </c>
-      <c r="P102" s="4">
+      <c r="P102" s="9">
         <f t="shared" si="5"/>
         <v>0.12083333333333338</v>
       </c>
     </row>
-    <row r="103" spans="1:16">
-      <c r="A103">
+    <row r="103" spans="1:16" s="6" customFormat="1">
+      <c r="A103" s="6">
         <v>6</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="6">
         <v>102</v>
       </c>
-      <c r="C103" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="C103" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D103" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" s="7">
         <v>43007</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H103" s="2">
+      <c r="H103" s="8">
         <v>0.32569444444444445</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="6">
         <v>25</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="6">
         <v>3.38</v>
       </c>
-      <c r="K103" s="2">
+      <c r="K103" s="8">
         <v>0.42569444444444443</v>
       </c>
-      <c r="L103">
+      <c r="L103" s="6">
         <v>26.8</v>
       </c>
-      <c r="M103">
+      <c r="M103" s="6">
         <v>4.0599999999999996</v>
       </c>
-      <c r="N103" s="4">
+      <c r="N103" s="9">
         <f t="shared" si="3"/>
         <v>2.3999999999999995</v>
       </c>
-      <c r="O103">
+      <c r="O103" s="6">
         <f t="shared" si="4"/>
         <v>0.67999999999999972</v>
       </c>
-      <c r="P103" s="4">
+      <c r="P103" s="9">
         <f t="shared" si="5"/>
         <v>0.28333333333333327</v>
       </c>
@@ -6290,320 +6378,320 @@
         <v>-8.5714285714285857E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:16">
-      <c r="A110">
+    <row r="110" spans="1:16" s="6" customFormat="1">
+      <c r="A110" s="6">
         <v>7</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="6">
         <v>109</v>
       </c>
-      <c r="C110" t="s">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s">
-        <v>12</v>
-      </c>
-      <c r="E110" s="1">
+      <c r="C110" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" s="7">
         <v>43056</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F110" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H110" s="2">
+      <c r="H110" s="8">
         <v>0.31388888888888888</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="6">
         <v>24.9</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="6">
         <v>5.4</v>
       </c>
-      <c r="K110" s="2">
+      <c r="K110" s="8">
         <v>0.44861111111111113</v>
       </c>
-      <c r="L110">
+      <c r="L110" s="6">
         <v>26</v>
       </c>
-      <c r="M110">
+      <c r="M110" s="6">
         <v>5.12</v>
       </c>
-      <c r="N110" s="4">
+      <c r="N110" s="9">
         <f t="shared" si="3"/>
         <v>3.2333333333333338</v>
       </c>
-      <c r="O110">
+      <c r="O110" s="6">
         <f t="shared" si="4"/>
         <v>-0.28000000000000025</v>
       </c>
-      <c r="P110" s="4">
+      <c r="P110" s="9">
         <f t="shared" si="5"/>
         <v>-8.6597938144329964E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:16">
-      <c r="A111">
+    <row r="111" spans="1:16" s="6" customFormat="1">
+      <c r="A111" s="6">
         <v>7</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="6">
         <v>110</v>
       </c>
-      <c r="C111" t="s">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" s="1">
+      <c r="C111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E111" s="7">
         <v>43056</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H111" s="2">
+      <c r="H111" s="8">
         <v>0.31458333333333333</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="6">
         <v>24.6</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="6">
         <v>5.37</v>
       </c>
-      <c r="K111" s="2">
+      <c r="K111" s="8">
         <v>0.44930555555555557</v>
       </c>
-      <c r="L111">
+      <c r="L111" s="6">
         <v>26.2</v>
       </c>
-      <c r="M111">
+      <c r="M111" s="6">
         <v>5.19</v>
       </c>
-      <c r="N111" s="4">
+      <c r="N111" s="9">
         <f t="shared" si="3"/>
         <v>3.2333333333333338</v>
       </c>
-      <c r="O111">
+      <c r="O111" s="6">
         <f t="shared" si="4"/>
         <v>-0.17999999999999972</v>
       </c>
-      <c r="P111" s="4">
+      <c r="P111" s="9">
         <f t="shared" si="5"/>
         <v>-5.5670103092783411E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:16">
-      <c r="A112">
+    <row r="112" spans="1:16" s="6" customFormat="1">
+      <c r="A112" s="6">
         <v>7</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="6">
         <v>111</v>
       </c>
-      <c r="C112" t="s">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s">
-        <v>12</v>
-      </c>
-      <c r="E112" s="1">
+      <c r="C112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E112" s="7">
         <v>43056</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H112" s="2">
+      <c r="H112" s="8">
         <v>0.31597222222222221</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="6">
         <v>24.6</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="6">
         <v>5.32</v>
       </c>
-      <c r="K112" s="2">
+      <c r="K112" s="8">
         <v>0.45</v>
       </c>
-      <c r="L112">
+      <c r="L112" s="6">
         <v>26.1</v>
       </c>
-      <c r="M112">
+      <c r="M112" s="6">
         <v>5.19</v>
       </c>
-      <c r="N112" s="4">
+      <c r="N112" s="9">
         <f t="shared" si="3"/>
         <v>3.2166666666666672</v>
       </c>
-      <c r="O112">
+      <c r="O112" s="6">
         <f t="shared" si="4"/>
         <v>-0.12999999999999989</v>
       </c>
-      <c r="P112" s="4">
+      <c r="P112" s="9">
         <f t="shared" si="5"/>
         <v>-4.0414507772020686E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:16">
-      <c r="A113">
+    <row r="113" spans="1:16" s="6" customFormat="1">
+      <c r="A113" s="6">
         <v>7</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="6">
         <v>112</v>
       </c>
-      <c r="C113" t="s">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" s="1">
+      <c r="C113" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" s="7">
         <v>43056</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F113" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H113" s="2">
+      <c r="H113" s="8">
         <v>0.31666666666666665</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="6">
         <v>24.5</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="6">
         <v>5.33</v>
       </c>
-      <c r="K113" s="2">
+      <c r="K113" s="8">
         <v>0.45069444444444445</v>
       </c>
-      <c r="L113">
+      <c r="L113" s="6">
         <v>26.1</v>
       </c>
-      <c r="M113">
+      <c r="M113" s="6">
         <v>5.2</v>
       </c>
-      <c r="N113" s="4">
+      <c r="N113" s="9">
         <f t="shared" si="3"/>
         <v>3.2166666666666672</v>
       </c>
-      <c r="O113">
+      <c r="O113" s="6">
         <f t="shared" si="4"/>
         <v>-0.12999999999999989</v>
       </c>
-      <c r="P113" s="4">
+      <c r="P113" s="9">
         <f t="shared" si="5"/>
         <v>-4.0414507772020686E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:16">
-      <c r="A114">
+    <row r="114" spans="1:16" s="6" customFormat="1">
+      <c r="A114" s="6">
         <v>7</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="6">
         <v>113</v>
       </c>
-      <c r="C114" t="s">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s">
-        <v>12</v>
-      </c>
-      <c r="E114" s="1">
+      <c r="C114" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="7">
         <v>43056</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F114" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H114" s="2">
+      <c r="H114" s="8">
         <v>0.31736111111111115</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="6">
         <v>24.4</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="6">
         <v>5.3</v>
       </c>
-      <c r="K114" s="2">
+      <c r="K114" s="8">
         <v>0.4513888888888889</v>
       </c>
-      <c r="L114">
+      <c r="L114" s="6">
         <v>26.2</v>
       </c>
-      <c r="M114">
+      <c r="M114" s="6">
         <v>5.18</v>
       </c>
-      <c r="N114" s="4">
+      <c r="N114" s="9">
         <f t="shared" si="3"/>
         <v>3.2166666666666659</v>
       </c>
-      <c r="O114">
+      <c r="O114" s="6">
         <f t="shared" si="4"/>
         <v>-0.12000000000000011</v>
       </c>
-      <c r="P114" s="4">
+      <c r="P114" s="9">
         <f t="shared" si="5"/>
         <v>-3.730569948186533E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:16">
-      <c r="A115">
+    <row r="115" spans="1:16" s="6" customFormat="1">
+      <c r="A115" s="6">
         <v>7</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="6">
         <v>114</v>
       </c>
-      <c r="C115" t="s">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" s="1">
+      <c r="C115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E115" s="7">
         <v>43056</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F115" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H115" s="2">
+      <c r="H115" s="8">
         <v>0.31805555555555554</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="6">
         <v>24.1</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="6">
         <v>5.29</v>
       </c>
-      <c r="K115" s="2">
+      <c r="K115" s="8">
         <v>0.45208333333333334</v>
       </c>
-      <c r="L115">
+      <c r="L115" s="6">
         <v>26.2</v>
       </c>
-      <c r="M115">
+      <c r="M115" s="6">
         <v>5.12</v>
       </c>
-      <c r="N115" s="4">
+      <c r="N115" s="9">
         <f t="shared" si="3"/>
         <v>3.2166666666666672</v>
       </c>
-      <c r="O115">
+      <c r="O115" s="6">
         <f t="shared" si="4"/>
         <v>-0.16999999999999993</v>
       </c>
-      <c r="P115" s="4">
+      <c r="P115" s="9">
         <f t="shared" si="5"/>
         <v>-5.2849740932642456E-2</v>
       </c>
@@ -6926,320 +7014,320 @@
         <v>6.1855670103092855E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:16">
-      <c r="A122">
+    <row r="122" spans="1:16" s="6" customFormat="1">
+      <c r="A122" s="6">
         <v>7</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="6">
         <v>121</v>
       </c>
-      <c r="C122" t="s">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="C122" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E122" s="7">
         <v>43056</v>
       </c>
-      <c r="F122" t="s">
+      <c r="F122" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H122" s="2">
+      <c r="H122" s="8">
         <v>0.34166666666666662</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="6">
         <v>22</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="6">
         <v>3.78</v>
       </c>
-      <c r="K122" s="2">
+      <c r="K122" s="8">
         <v>0.43124999999999997</v>
       </c>
-      <c r="L122">
+      <c r="L122" s="6">
         <v>23.5</v>
       </c>
-      <c r="M122">
+      <c r="M122" s="6">
         <v>3.68</v>
       </c>
-      <c r="N122" s="4">
+      <c r="N122" s="9">
         <f t="shared" si="3"/>
         <v>2.1500000000000004</v>
       </c>
-      <c r="O122">
+      <c r="O122" s="6">
         <f t="shared" si="4"/>
         <v>-9.9999999999999645E-2</v>
       </c>
-      <c r="P122" s="4">
+      <c r="P122" s="9">
         <f t="shared" si="5"/>
         <v>-4.651162790697657E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:16">
-      <c r="A123">
+    <row r="123" spans="1:16" s="6" customFormat="1">
+      <c r="A123" s="6">
         <v>7</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="6">
         <v>122</v>
       </c>
-      <c r="C123" t="s">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="C123" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E123" s="7">
         <v>43056</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F123" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H123" s="2">
+      <c r="H123" s="8">
         <v>0.34375</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="6">
         <v>21.8</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="6">
         <v>3.72</v>
       </c>
-      <c r="K123" s="2">
+      <c r="K123" s="8">
         <v>0.43263888888888885</v>
       </c>
-      <c r="L123">
+      <c r="L123" s="6">
         <v>23.6</v>
       </c>
-      <c r="M123">
+      <c r="M123" s="6">
         <v>3.69</v>
       </c>
-      <c r="N123" s="4">
+      <c r="N123" s="9">
         <f t="shared" si="3"/>
         <v>2.1333333333333324</v>
       </c>
-      <c r="O123">
+      <c r="O123" s="6">
         <f t="shared" si="4"/>
         <v>-3.0000000000000249E-2</v>
       </c>
-      <c r="P123" s="4">
+      <c r="P123" s="9">
         <f t="shared" si="5"/>
         <v>-1.4062500000000122E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
-      <c r="A124">
+    <row r="124" spans="1:16" s="6" customFormat="1">
+      <c r="A124" s="6">
         <v>7</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="6">
         <v>123</v>
       </c>
-      <c r="C124" t="s">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="C124" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D124" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E124" s="7">
         <v>43056</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H124" s="2">
+      <c r="H124" s="8">
         <v>0.34236111111111112</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="6">
         <v>22</v>
       </c>
-      <c r="J124">
+      <c r="J124" s="6">
         <v>3.71</v>
       </c>
-      <c r="K124" s="2">
+      <c r="K124" s="8">
         <v>0.43333333333333335</v>
       </c>
-      <c r="L124">
+      <c r="L124" s="6">
         <v>23.4</v>
       </c>
-      <c r="M124">
+      <c r="M124" s="6">
         <v>3.7</v>
       </c>
-      <c r="N124" s="4">
+      <c r="N124" s="9">
         <f t="shared" si="3"/>
         <v>2.1833333333333336</v>
       </c>
-      <c r="O124">
+      <c r="O124" s="6">
         <f t="shared" si="4"/>
         <v>-9.9999999999997868E-3</v>
       </c>
-      <c r="P124" s="4">
+      <c r="P124" s="9">
         <f t="shared" si="5"/>
         <v>-4.5801526717556273E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:16">
-      <c r="A125">
+    <row r="125" spans="1:16" s="6" customFormat="1">
+      <c r="A125" s="6">
         <v>7</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="6">
         <v>124</v>
       </c>
-      <c r="C125" t="s">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="C125" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D125" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E125" s="7">
         <v>43056</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H125" s="2">
+      <c r="H125" s="8">
         <v>0.34513888888888888</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="6">
         <v>22</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="6">
         <v>3.62</v>
       </c>
-      <c r="K125" s="2">
+      <c r="K125" s="8">
         <v>0.43402777777777773</v>
       </c>
-      <c r="L125">
+      <c r="L125" s="6">
         <v>23.4</v>
       </c>
-      <c r="M125">
+      <c r="M125" s="6">
         <v>3.6</v>
       </c>
-      <c r="N125" s="4">
+      <c r="N125" s="9">
         <f t="shared" si="3"/>
         <v>2.1333333333333324</v>
       </c>
-      <c r="O125">
+      <c r="O125" s="6">
         <f t="shared" si="4"/>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="P125" s="4">
+      <c r="P125" s="9">
         <f t="shared" si="5"/>
         <v>-9.3750000000000118E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:16">
-      <c r="A126">
+    <row r="126" spans="1:16" s="6" customFormat="1">
+      <c r="A126" s="6">
         <v>7</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="6">
         <v>125</v>
       </c>
-      <c r="C126" t="s">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="C126" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D126" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E126" s="7">
         <v>43056</v>
       </c>
-      <c r="F126" t="s">
+      <c r="F126" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H126" s="2">
+      <c r="H126" s="8">
         <v>0.34583333333333338</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="6">
         <v>21.9</v>
       </c>
-      <c r="J126">
+      <c r="J126" s="6">
         <v>3.61</v>
       </c>
-      <c r="K126" s="2">
+      <c r="K126" s="8">
         <v>0.43541666666666662</v>
       </c>
-      <c r="L126">
+      <c r="L126" s="6">
         <v>23.5</v>
       </c>
-      <c r="M126">
+      <c r="M126" s="6">
         <v>3.56</v>
       </c>
-      <c r="N126" s="4">
+      <c r="N126" s="9">
         <f t="shared" si="3"/>
         <v>2.1499999999999977</v>
       </c>
-      <c r="O126">
+      <c r="O126" s="6">
         <f t="shared" si="4"/>
         <v>-4.9999999999999822E-2</v>
       </c>
-      <c r="P126" s="4">
+      <c r="P126" s="9">
         <f t="shared" si="5"/>
         <v>-2.3255813953488313E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:16">
-      <c r="A127">
+    <row r="127" spans="1:16" s="6" customFormat="1">
+      <c r="A127" s="6">
         <v>7</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="6">
         <v>126</v>
       </c>
-      <c r="C127" t="s">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="C127" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D127" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E127" s="7">
         <v>43056</v>
       </c>
-      <c r="F127" t="s">
+      <c r="F127" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H127" s="2">
+      <c r="H127" s="8">
         <v>0.34652777777777777</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="6">
         <v>22.2</v>
       </c>
-      <c r="J127">
+      <c r="J127" s="6">
         <v>3.65</v>
       </c>
-      <c r="K127" s="2">
+      <c r="K127" s="8">
         <v>0.43611111111111112</v>
       </c>
-      <c r="L127">
+      <c r="L127" s="6">
         <v>23.6</v>
       </c>
-      <c r="M127">
+      <c r="M127" s="6">
         <v>3.6</v>
       </c>
-      <c r="N127" s="4">
+      <c r="N127" s="9">
         <f t="shared" si="3"/>
         <v>2.1500000000000004</v>
       </c>
-      <c r="O127">
+      <c r="O127" s="6">
         <f t="shared" si="4"/>
         <v>-4.9999999999999822E-2</v>
       </c>
-      <c r="P127" s="4">
+      <c r="P127" s="9">
         <f t="shared" si="5"/>
         <v>-2.3255813953488285E-2</v>
       </c>
@@ -7575,10 +7663,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7640,30 +7728,250 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>42922</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="4">
+        <f>AVERAGE(data!P14:P19)</f>
+        <v>0.25488387176159105</v>
+      </c>
+      <c r="G3" s="5">
+        <f>(STDEV(data!P14:P19))/(SQRT(6))</f>
+        <v>0.31444780599950423</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42934</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="4">
+        <f>AVERAGE(data!P26:P31)</f>
+        <v>0.72937602842920735</v>
+      </c>
+      <c r="G4">
+        <f>(STDEV(data!P26:P31))/(SQRT(6))</f>
+        <v>2.2033506025328855E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1">
+        <v>42934</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4">
+        <f>AVERAGE(data!P38:P43)</f>
+        <v>0.45218361503157761</v>
+      </c>
+      <c r="G5">
+        <f>(STDEV(data!P38:P43))/(SQRT(6))</f>
+        <v>3.3165732916740159E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42937</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="4">
+        <f>AVERAGE(data!P50:P55)</f>
+        <v>0.45680545970401037</v>
+      </c>
+      <c r="G6">
+        <f>(STDEV(data!P50:P55))/(SQRT(6))</f>
+        <v>7.6898457760681705E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1">
+        <v>42937</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="4">
+        <f>AVERAGE(data!P62:P67)</f>
+        <v>0.18223155274675074</v>
+      </c>
+      <c r="G7">
+        <f>(STDEV(data!P62:P67))/(SQRT(6))</f>
+        <v>2.3498450920054693E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1">
+        <v>42996</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="4">
+        <f>AVERAGE(data!P74:P79)</f>
+        <v>0.10053637465324072</v>
+      </c>
+      <c r="G8">
+        <f>(STDEV(data!P74:P79))/(SQRT(6))</f>
+        <v>5.4330667687823584E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43007</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="4">
+        <f>AVERAGE(data!P86:P91)</f>
+        <v>0.29416014093433435</v>
+      </c>
+      <c r="G9">
+        <f>(STDEV(data!P86:P91))/(SQRT(6))</f>
+        <v>1.1947644410524974E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43007</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="4">
+        <f>AVERAGE(data!P98:P103)</f>
+        <v>0.1192571647616691</v>
+      </c>
+      <c r="G10">
+        <f>(STDEV(data!P98:P103))/(SQRT(6))</f>
+        <v>3.9731484644101929E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
         <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43056</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="4">
+        <f>AVERAGE(data!P110:P115)</f>
+        <v>-5.220874953261042E-2</v>
+      </c>
+      <c r="G11">
+        <f>(STDEV(data!P110:P115))/(SQRT(6))</f>
+        <v>7.5173517279366166E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43056</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="4">
+        <f>AVERAGE(data!P122:P127)</f>
+        <v>-2.0173484747618157E-2</v>
+      </c>
+      <c r="G12">
+        <f>(STDEV(data!P122:P127))/(SQRT(6))</f>
+        <v>6.0822219196821591E-3</v>
       </c>
     </row>
   </sheetData>
@@ -7679,10 +7987,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7692,7 +8000,7 @@
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -7715,13 +8023,284 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="I2" t="s">
-        <v>35</v>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>42877</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="4">
+        <f>AVERAGE(data!P8:P13)</f>
+        <v>0.41398944960954931</v>
+      </c>
+      <c r="G2">
+        <f>(STDEV(data!P8:P13))/(SQRT(6))</f>
+        <v>3.2460721504083211E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>42922</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="4">
+        <f>AVERAGE(data!P20:P25)</f>
+        <v>-0.12068289068553349</v>
+      </c>
+      <c r="G3">
+        <f>(STDEV(data!P20:P25))/(SQRT(6))</f>
+        <v>4.7520522872633274E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>42934</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4">
+        <f>AVERAGE(data!P32:P37)</f>
+        <v>-0.15399590740584615</v>
+      </c>
+      <c r="G4">
+        <f>(STDEV(data!P32:P37))/(SQRT(6))</f>
+        <v>6.1887273608217351E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="1">
+        <v>42934</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4">
+        <f>AVERAGE(data!P44:P49)</f>
+        <v>-0.1197089986913335</v>
+      </c>
+      <c r="G5">
+        <f>(STDEV(data!P44:P49))/(SQRT(6))</f>
+        <v>3.2699503019605939E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1">
+        <v>42937</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4">
+        <f>AVERAGE(data!P56:P61)</f>
+        <v>-6.629707321945863E-2</v>
+      </c>
+      <c r="G6">
+        <f>(STDEV(data!P56:P61))/(SQRT(6))</f>
+        <v>1.224595928471007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="1">
+        <v>42937</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4">
+        <f>AVERAGE(data!P68:P73)</f>
+        <v>-5.1126937578550496E-2</v>
+      </c>
+      <c r="G7">
+        <f>(STDEV(data!P68:P73))/(SQRT(6))</f>
+        <v>5.7148545051064845E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1">
+        <v>42996</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="4">
+        <f>AVERAGE(data!P80:P85)</f>
+        <v>-1.3842934024317306E-2</v>
+      </c>
+      <c r="G8">
+        <f>(STDEV(data!P80:P85))/(SQRT(6))</f>
+        <v>4.9651121954082215E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43007</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="4">
+        <f>AVERAGE(data!P92:P97)</f>
+        <v>-0.11531887446585502</v>
+      </c>
+      <c r="G9">
+        <f>(STDEV(data!P92:P97))/(SQRT(6))</f>
+        <v>3.3999084487989235E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43007</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="4">
+        <f>AVERAGE(data!P104:P109)</f>
+        <v>-2.623257274141302E-2</v>
+      </c>
+      <c r="G10">
+        <f>(STDEV(data!P104:P109))/(SQRT(6))</f>
+        <v>1.280188718696861E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43056</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="4">
+        <f>AVERAGE(data!P116:P121)</f>
+        <v>-8.3061802254153164E-3</v>
+      </c>
+      <c r="G11">
+        <f>(STDEV(data!P116:P121))/(SQRT(6))</f>
+        <v>1.4246653132782937E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="1">
+        <v>43056</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="4">
+        <f>AVERAGE(data!P128:P133)</f>
+        <v>-1.300244810995251E-2</v>
+      </c>
+      <c r="G12">
+        <f>(STDEV(data!P128:P133))/(SQRT(6))</f>
+        <v>6.1518442229706958E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7732,17 +8311,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -7756,46 +8339,108 @@
       <c r="E1" t="s">
         <v>26</v>
       </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4">
+        <f>AVERAGE(anpp!F2,anpp!F3,anpp!F4,anpp!F6,anpp!F9,anpp!F11)</f>
+        <v>0.40179201508975032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="4">
+        <f>AVERAGE(anpp!F5,anpp!F7,anpp!F8,anpp!F10,anpp!F12)</f>
+        <v>0.16680704448912401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="4">
+        <f>AVERAGE(respiration!F2,respiration!F3,respiration!F4,respiration!F6,respiration!F9,respiration!F11)</f>
+        <v>-8.4352460654265517E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4">
+        <f>AVERAGE(respiration!F5,respiration!F7,respiration!F8,respiration!F10,respiration!F12)</f>
+        <v>-4.4782778229113369E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/results/tr-app-results.xlsx
+++ b/results/tr-app-results.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="2060" yWindow="480" windowWidth="21700" windowHeight="13860" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="anpp" sheetId="2" r:id="rId2"/>
     <sheet name="respiration" sheetId="3" r:id="rId3"/>
     <sheet name="location" sheetId="4" r:id="rId4"/>
+    <sheet name="graphics" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" calcCompleted="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -165,9 +166,6 @@
     <t>respiration</t>
   </si>
   <si>
-    <t xml:space="preserve">respiration </t>
-  </si>
-  <si>
     <t>data_type</t>
   </si>
   <si>
@@ -175,6 +173,9 @@
   </si>
   <si>
     <t>ave_std_err</t>
+  </si>
+  <si>
+    <t>#_events</t>
   </si>
 </sst>
 </file>
@@ -325,6 +326,852 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Spatial</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Variance in </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ANPP</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.248270358822597"/>
+          <c:y val="0.0247293651230659"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.171683348306294"/>
+          <c:y val="0.162499399439477"/>
+          <c:w val="0.66169296623157"/>
+          <c:h val="0.634170025357"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Inflow</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.00555555555555555"/>
+                  <c:y val="0.585658347791272"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>location!$G$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.0674133749157999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>location!$G$2</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.0674133749157999</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>location!$F$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.40179201508975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Outflow</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="0.292061123715468"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>location!$G$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.0310481762753476</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>location!$G$3</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>0.0310481762753476</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>location!$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.166807044489124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2126410872"/>
+        <c:axId val="2126966840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2126410872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Location</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.418304243219598"/>
+              <c:y val="0.891584679033765"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2126966840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2126966840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> ANPP (mg/L*hr)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0286609945568884"/>
+              <c:y val="0.30926463300479"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2126410872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.841709755030621"/>
+          <c:y val="0.368532496997197"/>
+          <c:w val="0.141606640014967"/>
+          <c:h val="0.143620344465163"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Spatial Variance in ANPP</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.218827829122857"/>
+          <c:y val="0.129469802952494"/>
+          <c:w val="0.597408425322442"/>
+          <c:h val="0.724981671794487"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>location!$C$2:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>inflow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>outflow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>location!$F$2:$F$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.40179201508975</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.166807044489124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2133079640"/>
+        <c:axId val="2133247448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2133079640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Location</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2133247448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2133247448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean ANPP (mg/L*hr)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0727120816760224"/>
+              <c:y val="0.304372001550725"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2133079640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>Location</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.169432493753584"/>
+          <c:y val="0.110807717377063"/>
+          <c:w val="0.676464099020706"/>
+          <c:h val="0.72845712108348"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="0.005"/>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>location!$C$4:$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>inflow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>outflow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>location!$F$4:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-0.00843524606542654</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.0447827782291134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="2126466792"/>
+        <c:axId val="2125637464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2126466792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Spatial Variance in Respiration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.208447379160029"/>
+              <c:y val="0.874148610680405"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2125637464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2125637464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mean Respiration</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (mg/L*hr)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0307969487843146"/>
+              <c:y val="0.290779417835182"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2126466792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>692150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>793750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>88902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>91016</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -582,7 +1429,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -592,7 +1439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P133"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -7665,8 +8512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8313,19 +9160,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" activeCellId="1" sqref="C2:C3 F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -8334,21 +9181,21 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
         <v>26</v>
       </c>
       <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>44</v>
+      <c r="A2">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -8356,17 +9203,24 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
       <c r="E2" t="s">
         <v>27</v>
       </c>
       <c r="F2" s="4">
-        <f>AVERAGE(anpp!F2,anpp!F3,anpp!F4,anpp!F6,anpp!F9,anpp!F11)</f>
-        <v>0.40179201508975032</v>
+        <f>AVERAGE(data!P2:P7,data!P14:P19,data!P26:P31,data!P50:P55,data!P86:P91,data!P110:P115)</f>
+        <v>0.40179201508975038</v>
+      </c>
+      <c r="G2">
+        <f>(STDEV(data!P2:P7,data!P14:P19,data!P26:P31,data!P50:P55,data!P86:P91,data!P110:P115))/(SQRT(36))</f>
+        <v>6.7413374915799948E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>44</v>
+      <c r="A3">
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -8374,17 +9228,24 @@
       <c r="C3" t="s">
         <v>25</v>
       </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
       <c r="E3" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="4">
-        <f>AVERAGE(anpp!F5,anpp!F7,anpp!F8,anpp!F10,anpp!F12)</f>
-        <v>0.16680704448912401</v>
+        <f>AVERAGE(data!P38:P43,data!P62:P67,data!P74:P79,data!P98:P103,data!P122:P127)</f>
+        <v>0.16680704448912398</v>
+      </c>
+      <c r="G3">
+        <f>(STDEV(data!P38:P43,data!P62:P67,data!P74:P79,data!P98:P103,data!P122:P127))/(SQRT(30))</f>
+        <v>3.1048176275347648E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>45</v>
+      <c r="A4">
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -8392,17 +9253,24 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
       <c r="E4" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="4">
-        <f>AVERAGE(respiration!F2,respiration!F3,respiration!F4,respiration!F6,respiration!F9,respiration!F11)</f>
-        <v>-8.4352460654265517E-3</v>
+        <f>AVERAGE(data!P8:P13,data!P20:P25,data!P32:P37,data!P56:P61,data!P92:P97,data!P116:P121)</f>
+        <v>-8.4352460654265465E-3</v>
+      </c>
+      <c r="G4">
+        <f>(STDEV(data!P8:P13,data!P20:P25,data!P32:P37,data!P56:P61,data!P92:P97,data!P116:P121))/(SQRT(36))</f>
+        <v>3.3409261272057254E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>46</v>
+      <c r="A5">
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -8410,12 +9278,19 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
       <c r="E5" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="4">
-        <f>AVERAGE(respiration!F5,respiration!F7,respiration!F8,respiration!F10,respiration!F12)</f>
-        <v>-4.4782778229113369E-2</v>
+        <f>AVERAGE(data!P44:P49,data!P68:P73,data!P80:P85,data!P104:P109,data!P128:P133)</f>
+        <v>-4.4782778229113362E-2</v>
+      </c>
+      <c r="G5">
+        <f>(STDEV(data!P44:P49,data!P68:P73,data!P80:P85,data!P104:P109,data!P128:P133))/(SQRT(30))</f>
+        <v>8.0147494340432526E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -8447,4 +9322,24 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>